--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.67276066666667</v>
+        <v>23.069913</v>
       </c>
       <c r="H2">
-        <v>86.018282</v>
+        <v>69.20973899999998</v>
       </c>
       <c r="I2">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="J2">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N2">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O2">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P2">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q2">
-        <v>31.65864638662444</v>
+        <v>8.958224087232999</v>
       </c>
       <c r="R2">
-        <v>284.92781747962</v>
+        <v>80.62401678509698</v>
       </c>
       <c r="S2">
-        <v>0.2626664266721808</v>
+        <v>0.111197838834123</v>
       </c>
       <c r="T2">
-        <v>0.2626664266721808</v>
+        <v>0.111197838834123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.67276066666667</v>
+        <v>23.069913</v>
       </c>
       <c r="H3">
-        <v>86.018282</v>
+        <v>69.20973899999998</v>
       </c>
       <c r="I3">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="J3">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q3">
-        <v>63.96854674385777</v>
+        <v>51.46866830415998</v>
       </c>
       <c r="R3">
-        <v>575.71692069472</v>
+        <v>463.2180147374398</v>
       </c>
       <c r="S3">
-        <v>0.5307361972279516</v>
+        <v>0.6388771510247733</v>
       </c>
       <c r="T3">
-        <v>0.5307361972279516</v>
+        <v>0.6388771510247733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.67276066666667</v>
+        <v>23.069913</v>
       </c>
       <c r="H4">
-        <v>86.018282</v>
+        <v>69.20973899999998</v>
       </c>
       <c r="I4">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="J4">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q4">
-        <v>18.56655873276867</v>
+        <v>14.938529974629</v>
       </c>
       <c r="R4">
-        <v>167.099028594918</v>
+        <v>134.446769771661</v>
       </c>
       <c r="S4">
-        <v>0.1540435929691529</v>
+        <v>0.1854309774305499</v>
       </c>
       <c r="T4">
-        <v>0.1540435929691529</v>
+        <v>0.1854309774305499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.27086</v>
       </c>
       <c r="I5">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="J5">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N5">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O5">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P5">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q5">
-        <v>0.8357799302888888</v>
+        <v>0.2939307826422222</v>
       </c>
       <c r="R5">
-        <v>7.522019372599999</v>
+        <v>2.645377043779999</v>
       </c>
       <c r="S5">
-        <v>0.006934324515720837</v>
+        <v>0.003648543224456555</v>
       </c>
       <c r="T5">
-        <v>0.006934324515720839</v>
+        <v>0.003648543224456556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.27086</v>
       </c>
       <c r="I6">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="J6">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q6">
         <v>1.688752793955555</v>
@@ -818,10 +818,10 @@
         <v>15.1987751456</v>
       </c>
       <c r="S6">
-        <v>0.01401129588750757</v>
+        <v>0.02096237593348122</v>
       </c>
       <c r="T6">
-        <v>0.01401129588750757</v>
+        <v>0.02096237593348122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.27086</v>
       </c>
       <c r="I7">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="J7">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q7">
         <v>0.4901522627933333</v>
@@ -880,10 +880,10 @@
         <v>4.41137036514</v>
       </c>
       <c r="S7">
-        <v>0.004066710301537184</v>
+        <v>0.006084227386089964</v>
       </c>
       <c r="T7">
-        <v>0.004066710301537184</v>
+        <v>0.006084227386089965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.500478</v>
       </c>
       <c r="I8">
-        <v>0.02754145242594914</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="J8">
-        <v>0.02754145242594913</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N8">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O8">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P8">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q8">
-        <v>0.9202898146644445</v>
+        <v>0.3236515925771111</v>
       </c>
       <c r="R8">
-        <v>8.282608331980001</v>
+        <v>2.912864333194</v>
       </c>
       <c r="S8">
-        <v>0.007635488711950808</v>
+        <v>0.004017465658298037</v>
       </c>
       <c r="T8">
-        <v>0.007635488711950808</v>
+        <v>0.004017465658298037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.500478</v>
       </c>
       <c r="I9">
-        <v>0.02754145242594914</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="J9">
-        <v>0.02754145242594913</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q9">
         <v>1.859511026097778</v>
@@ -1004,10 +1004,10 @@
         <v>16.73559923488</v>
       </c>
       <c r="S9">
-        <v>0.01542804801625955</v>
+        <v>0.02308198649383902</v>
       </c>
       <c r="T9">
-        <v>0.01542804801625954</v>
+        <v>0.02308198649383902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.500478</v>
       </c>
       <c r="I10">
-        <v>0.02754145242594914</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="J10">
-        <v>0.02754145242594913</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q10">
         <v>0.5397140069246668</v>
@@ -1066,10 +1066,10 @@
         <v>4.857426062322</v>
       </c>
       <c r="S10">
-        <v>0.004477915697738785</v>
+        <v>0.006699434014389027</v>
       </c>
       <c r="T10">
-        <v>0.004477915697738784</v>
+        <v>0.006699434014389027</v>
       </c>
     </row>
   </sheetData>
